--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,18 +24,12 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
-    <t>Задолженность по оплате членских взносов за уч№302 на 01.05.2018</t>
-  </si>
-  <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
   <si>
@@ -46,6 +40,15 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №302</t>
+  </si>
+  <si>
+    <t>Аванс по оплате членских взносов за уч№302 на 01.05.2018</t>
   </si>
 </sst>
 </file>
@@ -53,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +73,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,37 +144,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,7 +169,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,18 +178,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +506,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,10 +520,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="A2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,11 +534,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9">
@@ -554,11 +546,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>12068.08</v>
@@ -566,11 +558,11 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>43253</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -578,11 +570,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>43281</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
@@ -590,11 +582,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>43309</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
@@ -602,11 +594,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>43351</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
@@ -614,11 +606,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>43372</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
@@ -626,11 +618,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>43372</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
@@ -638,11 +630,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>43466</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="7">
         <v>963.84</v>
@@ -650,11 +642,11 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>43586</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10">
         <v>11154.44</v>
@@ -662,11 +654,11 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>43700</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="7">
@@ -674,11 +666,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>43700</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="10">
@@ -686,27 +678,24 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Аванс по оплате членских взносов за уч№302 на 01.05.2018</t>
+  </si>
+  <si>
+    <t>Аванс  членского взноса</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,10 +681,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="13">
+        <v>43950</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>2000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Аванс  членского взноса</t>
+  </si>
+  <si>
+    <t>Аванс  членского взноса 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,10 +696,16 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="13">
+        <v>43976</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <v>2000</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Аванс  членского взноса 2020/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> членский взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,9 +194,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -708,10 +708,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="13">
+        <v>44008</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t xml:space="preserve"> членский взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>10,08,2020</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,10 +516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D20" sqref="D15:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,12 +718,48 @@
       <c r="A17" s="13">
         <v>44008</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11">
+        <v>13031.92</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>44071</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>10,08,2020</t>
+  </si>
+  <si>
+    <t>Аренда земли</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D15:D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -758,9 +761,45 @@
         <v>13</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>2500</v>
       </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>44102</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>481.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>44102</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Аренда земли</t>
+  </si>
+  <si>
+    <t>Аванс  членский взнос 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +114,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,27 +199,17 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,6 +217,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,7 +553,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,10 +567,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -550,19 +581,19 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -574,7 +605,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>43253</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -586,7 +617,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>43281</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -598,7 +629,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>43309</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -610,7 +641,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>43351</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -622,7 +653,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>43372</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -634,7 +665,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>43372</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -646,160 +677,166 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>43466</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="17">
         <v>963.84</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="18">
         <v>43586</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="19">
         <v>11154.44</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="18">
         <v>43700</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7">
+      <c r="C13" s="20"/>
+      <c r="D13" s="17">
         <v>963.84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="18">
         <v>43700</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10">
+      <c r="C14" s="20"/>
+      <c r="D14" s="19">
         <v>11154.44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="21">
         <v>43950</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="21">
         <v>43976</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="21">
         <v>44008</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="25">
         <v>43952</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="26">
         <v>13031.92</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="25">
         <v>44071</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12">
+      <c r="C20" s="26"/>
+      <c r="D20" s="23">
         <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="25">
         <v>44102</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26">
         <v>481.92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="25">
         <v>44102</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12">
+      <c r="C22" s="26"/>
+      <c r="D22" s="23">
         <v>2050</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="14">
+        <v>44288</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,10 +833,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="14">
+        <v>44320</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="10">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Оплачено</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Аванс  членский взнос 2021/2022</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
+  </si>
+  <si>
+    <t>Оплата  членского взноса 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,6 +252,8 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -550,10 +561,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -821,28 +832,100 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="27">
         <v>44288</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10">
+      <c r="C23" s="20"/>
+      <c r="D23" s="28">
         <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="27">
         <v>44320</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10">
-        <v>2000</v>
-      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10">
+        <v>13383.32</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44197</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10">
+        <v>495.17</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>44349</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Оплачено</t>
   </si>
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,6 +260,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -564,7 +571,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,10 +899,16 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="27">
+        <v>44376</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29">
+        <v>2800</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>

--- a/sputnik/personal/uch/uch302.xlsx
+++ b/sputnik/personal/uch/uch302.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Оплачено</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Оплата  членского взноса 2021/2022</t>
+  </si>
+  <si>
+    <t>Оплачена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +270,9 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -570,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -875,13 +887,13 @@
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="31">
         <v>44197</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="30">
         <v>495.17</v>
       </c>
       <c r="D26" s="10"/>
@@ -911,28 +923,52 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="27">
+        <v>44410</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29">
+        <v>2850</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="27">
+        <v>44427</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29">
+        <v>1000</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="27">
+        <v>44427</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29">
+        <v>733.32</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="31">
+        <v>44427</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30">
+        <v>495.17</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
